--- a/Assets/StreamingAssets/GameData/LocalOption.xlsx
+++ b/Assets/StreamingAssets/GameData/LocalOption.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>项</t>
   </si>
@@ -37,7 +37,13 @@
     <t>语言</t>
   </si>
   <si>
-    <t>音量</t>
+    <t>主音量</t>
+  </si>
+  <si>
+    <t>音乐音量</t>
+  </si>
+  <si>
+    <t>音效音量</t>
   </si>
 </sst>
 </file>
@@ -968,13 +974,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -989,11 +995,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>100</v>
       </c>
     </row>
